--- a/problems.xlsx
+++ b/problems.xlsx
@@ -11,12 +11,64 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>не совсем так понял</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ф-я getline не вполне удовлетворительна - не учтен макс. Возможный размер</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>у меня совсем не такое решение, но кмк не хуже</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>3+</t>
   </si>
@@ -25,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +99,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -428,11 +487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,28 +835,32 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="7">
+        <v>5</v>
+      </c>
       <c r="F17" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="F18" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="7"/>
       <c r="F19" s="2">
         <v>17</v>
       </c>
@@ -831,10 +894,12 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -856,6 +921,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
